--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyas/Desktop/Workspace/FastStream Tech/Engine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyas/Desktop/Workspace/FastStream Tech/Engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Engine</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>normal</t>
+  </si>
+  <si>
+    <t>n1_age</t>
+  </si>
+  <si>
+    <t>n2_age</t>
   </si>
 </sst>
 </file>
@@ -56834,10 +56840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -56852,7 +56858,7 @@
     <col min="8" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56871,26 +56877,32 @@
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -56900,9 +56912,9 @@
       <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -56921,26 +56933,26 @@
       <c r="F3" s="5">
         <v>12000</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -56959,26 +56971,26 @@
       <c r="F4" s="5">
         <v>11000</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -56997,14 +57009,8 @@
       <c r="F5" s="9">
         <v>7000</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>46</v>
@@ -57013,10 +57019,16 @@
         <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -57035,26 +57047,26 @@
       <c r="F6" s="5">
         <v>10000</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -57073,26 +57085,26 @@
       <c r="F7" s="5">
         <v>11000</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -57111,26 +57123,26 @@
       <c r="F8" s="9">
         <v>6800</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -57149,26 +57161,26 @@
       <c r="F9" s="9">
         <v>7000</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -57187,26 +57199,26 @@
       <c r="F10" s="5">
         <v>10500</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -57225,26 +57237,26 @@
       <c r="F11" s="5">
         <v>10000</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>2</v>
       </c>
@@ -57263,26 +57275,26 @@
       <c r="F12" s="9">
         <v>5000</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>1</v>
       </c>

--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56842,8 +56842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -57334,6 +57334,20 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10000</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
         <v>23</v>

--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>Engine</t>
   </si>
@@ -186,6 +187,39 @@
   <si>
     <t>n2_age</t>
   </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>egt</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>failure_prob</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>n1/n2 increases, noise increases</t>
+  </si>
+  <si>
+    <t>humidity increases, ff increases</t>
+  </si>
+  <si>
+    <t>air_temp</t>
+  </si>
+  <si>
+    <t>epr</t>
+  </si>
+  <si>
+    <t>air_Temp</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,6 +329,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -56842,8 +56877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -57372,4 +57407,1469 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1263</v>
+      </c>
+      <c r="D2" s="11">
+        <v>4924</v>
+      </c>
+      <c r="E2" s="11">
+        <v>11197</v>
+      </c>
+      <c r="F2" s="11">
+        <v>9536</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1268</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4986</v>
+      </c>
+      <c r="E3" s="11">
+        <v>11370</v>
+      </c>
+      <c r="F3" s="11">
+        <v>9718</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1294</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4991</v>
+      </c>
+      <c r="E4" s="11">
+        <v>11449</v>
+      </c>
+      <c r="F4" s="11">
+        <v>9829</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1305</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5002</v>
+      </c>
+      <c r="E5" s="11">
+        <v>11514</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9829</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="7">
+        <v>700</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4500</v>
+      </c>
+      <c r="N5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>12000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>35</v>
+      </c>
+      <c r="R5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1321</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5012</v>
+      </c>
+      <c r="E6" s="11">
+        <v>11558</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9844</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="7">
+        <v>1900</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5500</v>
+      </c>
+      <c r="N6" s="5">
+        <v>14000</v>
+      </c>
+      <c r="O6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>-35</v>
+      </c>
+      <c r="R6" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1370</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5098</v>
+      </c>
+      <c r="E7" s="11">
+        <v>11577</v>
+      </c>
+      <c r="F7" s="11">
+        <v>9982</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="7">
+        <v>1300</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="N7" s="7">
+        <v>12000</v>
+      </c>
+      <c r="O7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="7">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1384</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5126</v>
+      </c>
+      <c r="E8" s="11">
+        <v>11647</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9993</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1387</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5130</v>
+      </c>
+      <c r="E9" s="11">
+        <v>11707</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10028</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1409</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5153</v>
+      </c>
+      <c r="E10" s="11">
+        <v>11717</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10028</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1423</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5158</v>
+      </c>
+      <c r="E11" s="11">
+        <v>11721</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10075</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1427</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5162</v>
+      </c>
+      <c r="E12" s="11">
+        <v>11751</v>
+      </c>
+      <c r="F12" s="11">
+        <v>10207</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1472</v>
+      </c>
+      <c r="D13" s="11">
+        <v>5173</v>
+      </c>
+      <c r="E13" s="11">
+        <v>11761</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10224</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1490</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5188</v>
+      </c>
+      <c r="E14" s="11">
+        <v>11873</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10266</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1515</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5205</v>
+      </c>
+      <c r="E15" s="11">
+        <v>11893</v>
+      </c>
+      <c r="F15" s="11">
+        <v>10393</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1563</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5231</v>
+      </c>
+      <c r="E16" s="11">
+        <v>11933</v>
+      </c>
+      <c r="F16" s="11">
+        <v>10485</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1606</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5263</v>
+      </c>
+      <c r="E17" s="11">
+        <v>11972</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10654</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1630</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5326</v>
+      </c>
+      <c r="E18" s="11">
+        <v>12078</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10680</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1666</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5336</v>
+      </c>
+      <c r="E19" s="11">
+        <v>12107</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10744</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1680</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5347</v>
+      </c>
+      <c r="E20" s="11">
+        <v>12108</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10803</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1684</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5404</v>
+      </c>
+      <c r="E21" s="11">
+        <v>12123</v>
+      </c>
+      <c r="F21" s="11">
+        <v>10859</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1699</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5411</v>
+      </c>
+      <c r="E22" s="11">
+        <v>12180</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10928</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1746</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5457</v>
+      </c>
+      <c r="E23" s="11">
+        <v>12372</v>
+      </c>
+      <c r="F23" s="11">
+        <v>10991</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1758</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5477</v>
+      </c>
+      <c r="E24" s="11">
+        <v>12375</v>
+      </c>
+      <c r="F24" s="11">
+        <v>11002</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1821</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5477</v>
+      </c>
+      <c r="E25" s="11">
+        <v>12407</v>
+      </c>
+      <c r="F25" s="11">
+        <v>11023</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1277</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4867</v>
+      </c>
+      <c r="E26" s="11">
+        <v>11681</v>
+      </c>
+      <c r="F26" s="11">
+        <v>10583</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1296</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4921</v>
+      </c>
+      <c r="E27" s="11">
+        <v>11808</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10649</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1336</v>
+      </c>
+      <c r="D28" s="11">
+        <v>4933</v>
+      </c>
+      <c r="E28" s="11">
+        <v>11947</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10845</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>2</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1337</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4988</v>
+      </c>
+      <c r="E29" s="11">
+        <v>12059</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10915</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>2</v>
+      </c>
+      <c r="B30" s="11">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1340</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5004</v>
+      </c>
+      <c r="E30" s="11">
+        <v>12109</v>
+      </c>
+      <c r="F30" s="11">
+        <v>10918</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1407</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5058</v>
+      </c>
+      <c r="E31" s="11">
+        <v>12120</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10939</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1423</v>
+      </c>
+      <c r="D32" s="11">
+        <v>5058</v>
+      </c>
+      <c r="E32" s="11">
+        <v>12126</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10940</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>2</v>
+      </c>
+      <c r="B33" s="11">
+        <v>8</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1456</v>
+      </c>
+      <c r="D33" s="11">
+        <v>5106</v>
+      </c>
+      <c r="E33" s="11">
+        <v>12197</v>
+      </c>
+      <c r="F33" s="11">
+        <v>10957</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>2</v>
+      </c>
+      <c r="B34" s="11">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1522</v>
+      </c>
+      <c r="D34" s="11">
+        <v>5113</v>
+      </c>
+      <c r="E34" s="11">
+        <v>12211</v>
+      </c>
+      <c r="F34" s="11">
+        <v>10959</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>2</v>
+      </c>
+      <c r="B35" s="11">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1570</v>
+      </c>
+      <c r="D35" s="11">
+        <v>5165</v>
+      </c>
+      <c r="E35" s="11">
+        <v>12223</v>
+      </c>
+      <c r="F35" s="11">
+        <v>11070</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>2</v>
+      </c>
+      <c r="B36" s="11">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1584</v>
+      </c>
+      <c r="D36" s="11">
+        <v>5212</v>
+      </c>
+      <c r="E36" s="11">
+        <v>12223</v>
+      </c>
+      <c r="F36" s="11">
+        <v>11090</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="11">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1589</v>
+      </c>
+      <c r="D37" s="11">
+        <v>5287</v>
+      </c>
+      <c r="E37" s="11">
+        <v>12225</v>
+      </c>
+      <c r="F37" s="11">
+        <v>11159</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>2</v>
+      </c>
+      <c r="B38" s="11">
+        <v>13</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1649</v>
+      </c>
+      <c r="D38" s="11">
+        <v>5288</v>
+      </c>
+      <c r="E38" s="11">
+        <v>12272</v>
+      </c>
+      <c r="F38" s="11">
+        <v>11270</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>2</v>
+      </c>
+      <c r="B39" s="11">
+        <v>14</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1659</v>
+      </c>
+      <c r="D39" s="11">
+        <v>5328</v>
+      </c>
+      <c r="E39" s="11">
+        <v>12449</v>
+      </c>
+      <c r="F39" s="11">
+        <v>11318</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11">
+        <v>15</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1672</v>
+      </c>
+      <c r="D40" s="11">
+        <v>5333</v>
+      </c>
+      <c r="E40" s="11">
+        <v>12515</v>
+      </c>
+      <c r="F40" s="11">
+        <v>11576</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
+        <v>2</v>
+      </c>
+      <c r="B41" s="11">
+        <v>16</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1684</v>
+      </c>
+      <c r="D41" s="11">
+        <v>5338</v>
+      </c>
+      <c r="E41" s="11">
+        <v>12595</v>
+      </c>
+      <c r="F41" s="11">
+        <v>11592</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>2</v>
+      </c>
+      <c r="B42" s="11">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1753</v>
+      </c>
+      <c r="D42" s="11">
+        <v>5387</v>
+      </c>
+      <c r="E42" s="11">
+        <v>12890</v>
+      </c>
+      <c r="F42" s="11">
+        <v>11796</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>2</v>
+      </c>
+      <c r="B43" s="11">
+        <v>18</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1794</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="11">
+        <v>12956</v>
+      </c>
+      <c r="F43" s="11">
+        <v>11814</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="11">
+        <v>2</v>
+      </c>
+      <c r="B44" s="11">
+        <v>19</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D44" s="11">
+        <v>5455</v>
+      </c>
+      <c r="E44" s="11">
+        <v>12956</v>
+      </c>
+      <c r="F44" s="11">
+        <v>11868</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="11">
+        <v>2</v>
+      </c>
+      <c r="B45" s="11">
+        <v>20</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1807</v>
+      </c>
+      <c r="D45" s="11">
+        <v>5478</v>
+      </c>
+      <c r="E45" s="11">
+        <v>13050</v>
+      </c>
+      <c r="F45" s="11">
+        <v>11907</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="11">
+        <v>2</v>
+      </c>
+      <c r="B46" s="11">
+        <v>21</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1814</v>
+      </c>
+      <c r="D46" s="11">
+        <v>5542</v>
+      </c>
+      <c r="E46" s="11">
+        <v>13107</v>
+      </c>
+      <c r="F46" s="11">
+        <v>11924</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11">
+        <v>25</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="11">
+        <v>2</v>
+      </c>
+      <c r="B47" s="11">
+        <v>22</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1814</v>
+      </c>
+      <c r="D47" s="11">
+        <v>5555</v>
+      </c>
+      <c r="E47" s="11">
+        <v>13157</v>
+      </c>
+      <c r="F47" s="11">
+        <v>11981</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11">
+        <v>25</v>
+      </c>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="11">
+        <v>2</v>
+      </c>
+      <c r="B48" s="11">
+        <v>23</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1898</v>
+      </c>
+      <c r="D48" s="11">
+        <v>5559</v>
+      </c>
+      <c r="E48" s="11">
+        <v>13183</v>
+      </c>
+      <c r="F48" s="11">
+        <v>11981</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11">
+        <v>25</v>
+      </c>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="11">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11">
+        <v>24</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1901</v>
+      </c>
+      <c r="D49" s="11">
+        <v>5581</v>
+      </c>
+      <c r="E49" s="11">
+        <v>13222</v>
+      </c>
+      <c r="F49" s="11">
+        <v>12037</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11">
+        <v>75</v>
+      </c>
+      <c r="K49" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="final" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Engine</t>
   </si>
@@ -57413,8 +57414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -58872,4 +58873,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>700</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11500</v>
+      </c>
+      <c r="E2" s="5">
+        <v>120</v>
+      </c>
+      <c r="F2" s="5">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>1750</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5350</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>137</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-35</v>
+      </c>
+      <c r="G3" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1300</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-10</v>
+      </c>
+      <c r="G4" s="7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="final" sheetId="5" r:id="rId5"/>
+    <sheet name="output" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>Engine</t>
   </si>
@@ -221,6 +222,45 @@
   <si>
     <t>air_Temp</t>
   </si>
+  <si>
+    <t>Fuel Filter</t>
+  </si>
+  <si>
+    <t>Low Pressure Fan (N1)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Fan Blade</t>
+  </si>
+  <si>
+    <t>High Pressure Fan (N2)</t>
+  </si>
+  <si>
+    <t>Actual Life Span (in months)</t>
+  </si>
+  <si>
+    <t>Predicted Life Span (in months)</t>
+  </si>
+  <si>
+    <t>Total Turbine</t>
+  </si>
+  <si>
+    <t>Under normal conditions, Fan Blade starts to deteriorate during month 40 and will last a total of 58 months. But, the Fan Blade deteriorated during month 13 and will last only till month 54.</t>
+  </si>
+  <si>
+    <t>EGT</t>
+  </si>
+  <si>
+    <t>Under normal conditions, EGT starts to exceed limits during month 41 and will last a total of 58 months. But, it exceeded the limits during month 12 and will last only till month 54.</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -331,6 +371,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58877,10 +58923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -58977,6 +59023,221 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>700</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>120</v>
+      </c>
+      <c r="F10" s="5">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>1900</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>137</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-35</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>1300</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="7">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-10</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="12"/>
+    <col min="7" max="8" width="10.83203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="12"/>
+    <col min="10" max="11" width="10.83203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="12"/>
+    <col min="13" max="14" width="10.83203125" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="12">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="12">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="12">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="12">
+        <v>59</v>
+      </c>
+      <c r="C9" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="12">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Aircraft.xlsx
+++ b/data/Aircraft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-27320" yWindow="440" windowWidth="27320" windowHeight="14920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>Engine</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Low Pressure Fan (N1)</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -250,16 +247,22 @@
     <t>Total Turbine</t>
   </si>
   <si>
-    <t>Under normal conditions, Fan Blade starts to deteriorate during month 40 and will last a total of 58 months. But, the Fan Blade deteriorated during month 13 and will last only till month 54.</t>
-  </si>
-  <si>
     <t>EGT</t>
   </si>
   <si>
-    <t>Under normal conditions, EGT starts to exceed limits during month 41 and will last a total of 58 months. But, it exceeded the limits during month 12 and will last only till month 54.</t>
+    <t>new</t>
   </si>
   <si>
-    <t>new</t>
+    <t>Start month of failure</t>
+  </si>
+  <si>
+    <t>Value of complete failure</t>
+  </si>
+  <si>
+    <t>Value when failure started</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -58923,34 +58926,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -59024,92 +59030,87 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>76</v>
+      <c r="A7" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>700</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4500</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>120</v>
-      </c>
-      <c r="F10" s="5">
-        <v>35</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>1900</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5500</v>
-      </c>
-      <c r="C11" s="5">
-        <v>14000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="5">
-        <v>137</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-35</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="7">
+        <v>130</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>1300</v>
-      </c>
-      <c r="B12" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="7">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14000</v>
+      </c>
+      <c r="D12" s="7">
         <v>12000</v>
       </c>
-      <c r="D12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="7">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7">
-        <v>-10</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="E12" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C13" s="7">
+        <v>16000</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14000</v>
+      </c>
+      <c r="E13" s="7">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59118,77 +59119,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="121" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="12"/>
-    <col min="7" max="8" width="10.83203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="12" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="12"/>
     <col min="13" max="14" width="10.83203125" style="12" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="B3" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="12">
-        <v>54</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>143.11000000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12">
+        <v>137.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="12">
-        <v>51</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2468</v>
+      </c>
+      <c r="D5" s="12">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>64</v>
       </c>
@@ -59196,13 +59207,19 @@
         <v>60</v>
       </c>
       <c r="C7" s="12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5968</v>
+      </c>
+      <c r="D7" s="12">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>65</v>
       </c>
@@ -59210,32 +59227,181 @@
         <v>59</v>
       </c>
       <c r="C9" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15914</v>
+      </c>
+      <c r="D9" s="12">
+        <v>31</v>
+      </c>
+      <c r="E9" s="12">
+        <v>14003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13935</v>
+      </c>
+      <c r="D11" s="12">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12">
+        <v>12068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="12">
         <v>60</v>
       </c>
-      <c r="C13" s="12">
-        <v>53</v>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="12">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12">
+        <v>144.9</v>
+      </c>
+      <c r="D20" s="12">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="12">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2528</v>
+      </c>
+      <c r="D22" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="12">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6442</v>
+      </c>
+      <c r="D24" s="12">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="12">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12">
+        <v>15557</v>
+      </c>
+      <c r="D26" s="12">
+        <v>21</v>
+      </c>
+      <c r="E26" s="12">
+        <v>13939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="12">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12">
+        <v>13617</v>
+      </c>
+      <c r="D28" s="12">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12">
+        <v>11967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="12">
+        <v>36</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="12">
+        <v>15</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
